--- a/src/test/java/com/shopclues/testdata/search.xlsx
+++ b/src/test/java/com/shopclues/testdata/search.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="searchitems" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +18,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>SearchItems</t>
+  </si>
+  <si>
+    <t>T-shirts</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +48,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +79,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -323,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -331,12 +382,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>